--- a/test/testdata/testSBEarningUsdc_uniqueOwner_1_deposit.xlsx
+++ b/test/testdata/testSBEarningUsdc_uniqueOwner_1_deposit.xlsx
@@ -327,15 +327,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#0.##"/>
     <numFmt numFmtId="165" formatCode="#0.#######"/>
     <numFmt numFmtId="166" formatCode="#0.###"/>
     <numFmt numFmtId="167" formatCode="#0.########"/>
-    <numFmt numFmtId="172" formatCode="yyyy\-mm\-\d\d\ hh:mm:ss"/>
-    <numFmt numFmtId="173" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-\d\d\ hh:mm:ss"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -400,6 +401,14 @@
       <name val="Calibri"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -446,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -472,15 +481,19 @@
     <xf numFmtId="167" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,10 +811,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="D35" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -852,19 +865,19 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="26.15" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
@@ -1987,7 +2000,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -2022,10 +2035,10 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>44197.375</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>44197.375</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -2034,34 +2047,28 @@
       <c r="D42" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="12">
         <v>8.3223714617999995</v>
       </c>
-      <c r="F42" s="5">
-        <v>8.3223714617999995</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5">
-        <v>0</v>
-      </c>
-      <c r="I42" s="5">
-        <v>8.3223714617999995</v>
-      </c>
-      <c r="J42" s="5">
-        <v>8.3223714617999995</v>
-      </c>
+      <c r="J42" s="5"/>
       <c r="K42" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43" s="11">
-        <v>44228.375</v>
-      </c>
-      <c r="B43" s="11">
-        <v>44228.375</v>
+      <c r="A43" s="10">
+        <v>44198.375</v>
+      </c>
+      <c r="B43" s="10">
+        <v>44198.375</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>51</v>
@@ -2069,34 +2076,28 @@
       <c r="D43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="5">
-        <v>8.3223714617999995</v>
-      </c>
-      <c r="F43" s="5">
-        <v>8.3223714617999995</v>
-      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="5">
         <v>0</v>
       </c>
       <c r="H43" s="5">
         <v>0</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="12">
         <v>9.0354481139999994</v>
       </c>
-      <c r="J43" s="5">
-        <v>8.3223714617999995</v>
-      </c>
+      <c r="J43" s="5"/>
       <c r="K43" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" s="11">
-        <v>44256.375</v>
-      </c>
-      <c r="B44" s="11">
-        <v>44256.375</v>
+      <c r="A44" s="10">
+        <v>44199.375</v>
+      </c>
+      <c r="B44" s="10">
+        <v>44199.375</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>51</v>
@@ -2104,34 +2105,28 @@
       <c r="D44" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="5">
-        <v>8.3223714617999995</v>
-      </c>
-      <c r="F44" s="5">
-        <v>8.3223714617999995</v>
-      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="5">
         <v>0</v>
       </c>
       <c r="H44" s="5">
         <v>0</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="12">
         <v>9.7928598393000001</v>
       </c>
-      <c r="J44" s="5">
-        <v>8.3223714617999995</v>
-      </c>
+      <c r="J44" s="5"/>
       <c r="K44" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A45" s="11">
-        <v>44287.375</v>
-      </c>
-      <c r="B45" s="11">
-        <v>44287.375</v>
+      <c r="A45" s="10">
+        <v>44200.375</v>
+      </c>
+      <c r="B45" s="10">
+        <v>44200.375</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>51</v>
@@ -2139,34 +2134,28 @@
       <c r="D45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="5">
-        <v>8.3223714617999995</v>
-      </c>
-      <c r="F45" s="5">
-        <v>8.3223714617999995</v>
-      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="5">
         <v>0</v>
       </c>
       <c r="H45" s="5">
         <v>0</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="12">
         <v>7.7806500835000003</v>
       </c>
-      <c r="J45" s="5">
-        <v>8.3223714617999995</v>
-      </c>
+      <c r="J45" s="5"/>
       <c r="K45" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A46" s="11">
-        <v>44317.375</v>
-      </c>
-      <c r="B46" s="11">
-        <v>44317.375</v>
+      <c r="A46" s="10">
+        <v>44201.375</v>
+      </c>
+      <c r="B46" s="10">
+        <v>44201.375</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>51</v>
@@ -2174,26 +2163,26 @@
       <c r="D46" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="5">
-        <v>8.3223714617999995</v>
-      </c>
-      <c r="F46" s="5">
-        <v>8.3223714617999995</v>
-      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="5">
         <v>0</v>
       </c>
       <c r="H46" s="5">
         <v>0</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="12">
         <v>10.8483565077</v>
       </c>
-      <c r="J46" s="5">
-        <v>8.3223714617999995</v>
-      </c>
+      <c r="J46" s="5"/>
       <c r="K46" s="4" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="I47" s="13">
+        <f>SUM(I44:I46)</f>
+        <v>28.4218664305</v>
       </c>
     </row>
   </sheetData>

--- a/test/testdata/testSBEarningUsdc_uniqueOwner_1_deposit.xlsx
+++ b/test/testdata/testSBEarningUsdc_uniqueOwner_1_deposit.xlsx
@@ -487,13 +487,13 @@
     <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="170" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,7 +814,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D35" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -865,19 +865,19 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="26.15" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
@@ -2055,7 +2055,7 @@
       <c r="H42" s="5">
         <v>0</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="11">
         <v>8.3223714617999995</v>
       </c>
       <c r="J42" s="5"/>
@@ -2084,7 +2084,7 @@
       <c r="H43" s="5">
         <v>0</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="11">
         <v>9.0354481139999994</v>
       </c>
       <c r="J43" s="5"/>
@@ -2113,7 +2113,7 @@
       <c r="H44" s="5">
         <v>0</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="11">
         <v>9.7928598393000001</v>
       </c>
       <c r="J44" s="5"/>
@@ -2142,7 +2142,7 @@
       <c r="H45" s="5">
         <v>0</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="11">
         <v>7.7806500835000003</v>
       </c>
       <c r="J45" s="5"/>
@@ -2171,7 +2171,7 @@
       <c r="H46" s="5">
         <v>0</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="11">
         <v>10.8483565077</v>
       </c>
       <c r="J46" s="5"/>
@@ -2180,9 +2180,9 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="I47" s="13">
-        <f>SUM(I44:I46)</f>
-        <v>28.4218664305</v>
+      <c r="I47" s="12">
+        <f>SUM(I42:I46)</f>
+        <v>45.779686006299997</v>
       </c>
     </row>
   </sheetData>
